--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Cxcl12-Cxcr4.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Cxcl12-Cxcr4.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>97.4347646186674</v>
+        <v>109.1118546666667</v>
       </c>
       <c r="H2">
-        <v>97.4347646186674</v>
+        <v>327.335564</v>
       </c>
       <c r="I2">
-        <v>0.28362154336256</v>
+        <v>0.3029068882986101</v>
       </c>
       <c r="J2">
-        <v>0.28362154336256</v>
+        <v>0.3029068882986101</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>11.1896901694583</v>
+        <v>15.30232233333333</v>
       </c>
       <c r="N2">
-        <v>11.1896901694583</v>
+        <v>45.90696699999999</v>
       </c>
       <c r="O2">
-        <v>0.01119282326682845</v>
+        <v>0.01462767689232637</v>
       </c>
       <c r="P2">
-        <v>0.01119282326682845</v>
+        <v>0.01462767689232637</v>
       </c>
       <c r="Q2">
-        <v>1090.264827816986</v>
+        <v>1669.664770497154</v>
       </c>
       <c r="R2">
-        <v>1090.264827816986</v>
+        <v>15026.98293447439</v>
       </c>
       <c r="S2">
-        <v>0.003174525809522256</v>
+        <v>0.004430824090492063</v>
       </c>
       <c r="T2">
-        <v>0.003174525809522256</v>
+        <v>0.004430824090492063</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>97.4347646186674</v>
+        <v>109.1118546666667</v>
       </c>
       <c r="H3">
-        <v>97.4347646186674</v>
+        <v>327.335564</v>
       </c>
       <c r="I3">
-        <v>0.28362154336256</v>
+        <v>0.3029068882986101</v>
       </c>
       <c r="J3">
-        <v>0.28362154336256</v>
+        <v>0.3029068882986101</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.158345184663924</v>
+        <v>0.230825</v>
       </c>
       <c r="N3">
-        <v>0.158345184663924</v>
+        <v>0.6924750000000001</v>
       </c>
       <c r="O3">
-        <v>0.0001583895210909504</v>
+        <v>0.0002206484378724847</v>
       </c>
       <c r="P3">
-        <v>0.0001583895210909504</v>
+        <v>0.0002206484378724847</v>
       </c>
       <c r="Q3">
-        <v>15.42832579622886</v>
+        <v>25.18574385343334</v>
       </c>
       <c r="R3">
-        <v>15.42832579622886</v>
+        <v>226.6716946809</v>
       </c>
       <c r="S3">
-        <v>4.492268042427211E-05</v>
+        <v>6.683593172390351E-05</v>
       </c>
       <c r="T3">
-        <v>4.492268042427211E-05</v>
+        <v>6.683593172390352E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>97.4347646186674</v>
+        <v>109.1118546666667</v>
       </c>
       <c r="H4">
-        <v>97.4347646186674</v>
+        <v>327.335564</v>
       </c>
       <c r="I4">
-        <v>0.28362154336256</v>
+        <v>0.3029068882986101</v>
       </c>
       <c r="J4">
-        <v>0.28362154336256</v>
+        <v>0.3029068882986101</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>229.48819755857</v>
+        <v>248.91953</v>
       </c>
       <c r="N4">
-        <v>229.48819755857</v>
+        <v>746.75859</v>
       </c>
       <c r="O4">
-        <v>0.2295524539282605</v>
+        <v>0.2379452201904173</v>
       </c>
       <c r="P4">
-        <v>0.2295524539282605</v>
+        <v>0.2379452201904174</v>
       </c>
       <c r="Q4">
-        <v>22360.12851188151</v>
+        <v>27160.07158105498</v>
       </c>
       <c r="R4">
-        <v>22360.12851188151</v>
+        <v>244440.6442294948</v>
       </c>
       <c r="S4">
-        <v>0.0651060212657962</v>
+        <v>0.07207524623340691</v>
       </c>
       <c r="T4">
-        <v>0.0651060212657962</v>
+        <v>0.07207524623340693</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>97.4347646186674</v>
+        <v>109.1118546666667</v>
       </c>
       <c r="H5">
-        <v>97.4347646186674</v>
+        <v>327.335564</v>
       </c>
       <c r="I5">
-        <v>0.28362154336256</v>
+        <v>0.3029068882986101</v>
       </c>
       <c r="J5">
-        <v>0.28362154336256</v>
+        <v>0.3029068882986101</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>271.407715297155</v>
+        <v>276.4319353333333</v>
       </c>
       <c r="N5">
-        <v>271.407715297155</v>
+        <v>829.295806</v>
       </c>
       <c r="O5">
-        <v>0.2714837090723318</v>
+        <v>0.2642446646133118</v>
       </c>
       <c r="P5">
-        <v>0.2714837090723318</v>
+        <v>0.2642446646133118</v>
       </c>
       <c r="Q5">
-        <v>26444.54685566859</v>
+        <v>30162.00115331607</v>
       </c>
       <c r="R5">
-        <v>26444.54685566859</v>
+        <v>271458.0103798446</v>
       </c>
       <c r="S5">
-        <v>0.07699862856488698</v>
+        <v>0.0800415291075281</v>
       </c>
       <c r="T5">
-        <v>0.07699862856488698</v>
+        <v>0.08004152910752813</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>97.4347646186674</v>
+        <v>109.1118546666667</v>
       </c>
       <c r="H6">
-        <v>97.4347646186674</v>
+        <v>327.335564</v>
       </c>
       <c r="I6">
-        <v>0.28362154336256</v>
+        <v>0.3029068882986101</v>
       </c>
       <c r="J6">
-        <v>0.28362154336256</v>
+        <v>0.3029068882986101</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>460.925479015718</v>
+        <v>470.9135336666666</v>
       </c>
       <c r="N6">
-        <v>460.925479015718</v>
+        <v>1412.740601</v>
       </c>
       <c r="O6">
-        <v>0.4610545374958251</v>
+        <v>0.4501520007649158</v>
       </c>
       <c r="P6">
-        <v>0.4610545374958251</v>
+        <v>0.4501520007649159</v>
       </c>
       <c r="Q6">
-        <v>44910.165554643</v>
+        <v>51382.24904600377</v>
       </c>
       <c r="R6">
-        <v>44910.165554643</v>
+        <v>462440.241414034</v>
       </c>
       <c r="S6">
-        <v>0.1307649994988772</v>
+        <v>0.1363541418130942</v>
       </c>
       <c r="T6">
-        <v>0.1307649994988772</v>
+        <v>0.1363541418130942</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>97.4347646186674</v>
+        <v>109.1118546666667</v>
       </c>
       <c r="H7">
-        <v>97.4347646186674</v>
+        <v>327.335564</v>
       </c>
       <c r="I7">
-        <v>0.28362154336256</v>
+        <v>0.3029068882986101</v>
       </c>
       <c r="J7">
-        <v>0.28362154336256</v>
+        <v>0.3029068882986101</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>26.5506525706167</v>
+        <v>34.32301466666667</v>
       </c>
       <c r="N7">
-        <v>26.5506525706167</v>
+        <v>102.969044</v>
       </c>
       <c r="O7">
-        <v>0.02655808671566317</v>
+        <v>0.03280978910115619</v>
       </c>
       <c r="P7">
-        <v>0.02655808671566317</v>
+        <v>0.0328097891011562</v>
       </c>
       <c r="Q7">
-        <v>2586.956583690055</v>
+        <v>3745.047788031202</v>
       </c>
       <c r="R7">
-        <v>2586.956583690055</v>
+        <v>33705.43009228082</v>
       </c>
       <c r="S7">
-        <v>0.00753244554305309</v>
+        <v>0.009938311122364873</v>
       </c>
       <c r="T7">
-        <v>0.00753244554305309</v>
+        <v>0.009938311122364875</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>224.46232497262</v>
+        <v>227.6338753333333</v>
       </c>
       <c r="H8">
-        <v>224.46232497262</v>
+        <v>682.901626</v>
       </c>
       <c r="I8">
-        <v>0.6533843570581787</v>
+        <v>0.6319374650831437</v>
       </c>
       <c r="J8">
-        <v>0.6533843570581787</v>
+        <v>0.6319374650831437</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>11.1896901694583</v>
+        <v>15.30232233333333</v>
       </c>
       <c r="N8">
-        <v>11.1896901694583</v>
+        <v>45.90696699999999</v>
       </c>
       <c r="O8">
-        <v>0.01119282326682845</v>
+        <v>0.01462767689232637</v>
       </c>
       <c r="P8">
-        <v>0.01119282326682845</v>
+        <v>0.01462767689232637</v>
       </c>
       <c r="Q8">
-        <v>2511.66387115988</v>
+        <v>3483.326934336482</v>
       </c>
       <c r="R8">
-        <v>2511.66387115988</v>
+        <v>31349.94240902834</v>
       </c>
       <c r="S8">
-        <v>0.007313215633862531</v>
+        <v>0.009243777055392002</v>
       </c>
       <c r="T8">
-        <v>0.007313215633862531</v>
+        <v>0.009243777055392003</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>224.46232497262</v>
+        <v>227.6338753333333</v>
       </c>
       <c r="H9">
-        <v>224.46232497262</v>
+        <v>682.901626</v>
       </c>
       <c r="I9">
-        <v>0.6533843570581787</v>
+        <v>0.6319374650831437</v>
       </c>
       <c r="J9">
-        <v>0.6533843570581787</v>
+        <v>0.6319374650831437</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.158345184663924</v>
+        <v>0.230825</v>
       </c>
       <c r="N9">
-        <v>0.158345184663924</v>
+        <v>0.6924750000000001</v>
       </c>
       <c r="O9">
-        <v>0.0001583895210909504</v>
+        <v>0.0002206484378724847</v>
       </c>
       <c r="P9">
-        <v>0.0001583895210909504</v>
+        <v>0.0002206484378724847</v>
       </c>
       <c r="Q9">
-        <v>35.54252829788323</v>
+        <v>52.54358927381667</v>
       </c>
       <c r="R9">
-        <v>35.54252829788323</v>
+        <v>472.89230346435</v>
       </c>
       <c r="S9">
-        <v>0.0001034892354027635</v>
+        <v>0.0001394360145036935</v>
       </c>
       <c r="T9">
-        <v>0.0001034892354027635</v>
+        <v>0.0001394360145036935</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>224.46232497262</v>
+        <v>227.6338753333333</v>
       </c>
       <c r="H10">
-        <v>224.46232497262</v>
+        <v>682.901626</v>
       </c>
       <c r="I10">
-        <v>0.6533843570581787</v>
+        <v>0.6319374650831437</v>
       </c>
       <c r="J10">
-        <v>0.6533843570581787</v>
+        <v>0.6319374650831437</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>229.48819755857</v>
+        <v>248.91953</v>
       </c>
       <c r="N10">
-        <v>229.48819755857</v>
+        <v>746.75859</v>
       </c>
       <c r="O10">
-        <v>0.2295524539282605</v>
+        <v>0.2379452201904173</v>
       </c>
       <c r="P10">
-        <v>0.2295524539282605</v>
+        <v>0.2379452201904174</v>
       </c>
       <c r="Q10">
-        <v>51511.45437777256</v>
+        <v>56662.51726005193</v>
       </c>
       <c r="R10">
-        <v>51511.45437777256</v>
+        <v>509962.6553404673</v>
       </c>
       <c r="S10">
-        <v>0.1499859825210437</v>
+        <v>0.1503664992757828</v>
       </c>
       <c r="T10">
-        <v>0.1499859825210437</v>
+        <v>0.1503664992757828</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>224.46232497262</v>
+        <v>227.6338753333333</v>
       </c>
       <c r="H11">
-        <v>224.46232497262</v>
+        <v>682.901626</v>
       </c>
       <c r="I11">
-        <v>0.6533843570581787</v>
+        <v>0.6319374650831437</v>
       </c>
       <c r="J11">
-        <v>0.6533843570581787</v>
+        <v>0.6319374650831437</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>271.407715297155</v>
+        <v>276.4319353333333</v>
       </c>
       <c r="N11">
-        <v>271.407715297155</v>
+        <v>829.295806</v>
       </c>
       <c r="O11">
-        <v>0.2714837090723318</v>
+        <v>0.2642446646133118</v>
       </c>
       <c r="P11">
-        <v>0.2714837090723318</v>
+        <v>0.2642446646133118</v>
       </c>
       <c r="Q11">
-        <v>60920.80679110633</v>
+        <v>62925.27270582006</v>
       </c>
       <c r="R11">
-        <v>60920.80679110633</v>
+        <v>566327.4543523805</v>
       </c>
       <c r="S11">
-        <v>0.1773832087039952</v>
+        <v>0.1669861035174817</v>
       </c>
       <c r="T11">
-        <v>0.1773832087039952</v>
+        <v>0.1669861035174817</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>224.46232497262</v>
+        <v>227.6338753333333</v>
       </c>
       <c r="H12">
-        <v>224.46232497262</v>
+        <v>682.901626</v>
       </c>
       <c r="I12">
-        <v>0.6533843570581787</v>
+        <v>0.6319374650831437</v>
       </c>
       <c r="J12">
-        <v>0.6533843570581787</v>
+        <v>0.6319374650831437</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>460.925479015718</v>
+        <v>470.9135336666666</v>
       </c>
       <c r="N12">
-        <v>460.925479015718</v>
+        <v>1412.740601</v>
       </c>
       <c r="O12">
-        <v>0.4610545374958251</v>
+        <v>0.4501520007649158</v>
       </c>
       <c r="P12">
-        <v>0.4610545374958251</v>
+        <v>0.4501520007649159</v>
       </c>
       <c r="Q12">
-        <v>103460.4046589866</v>
+        <v>107195.8726154575</v>
       </c>
       <c r="R12">
-        <v>103460.4046589866</v>
+        <v>964762.8535391171</v>
       </c>
       <c r="S12">
-        <v>0.3012458225504656</v>
+        <v>0.2844679142654863</v>
       </c>
       <c r="T12">
-        <v>0.3012458225504656</v>
+        <v>0.2844679142654863</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>224.46232497262</v>
+        <v>227.6338753333333</v>
       </c>
       <c r="H13">
-        <v>224.46232497262</v>
+        <v>682.901626</v>
       </c>
       <c r="I13">
-        <v>0.6533843570581787</v>
+        <v>0.6319374650831437</v>
       </c>
       <c r="J13">
-        <v>0.6533843570581787</v>
+        <v>0.6319374650831437</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>26.5506525706167</v>
+        <v>34.32301466666667</v>
       </c>
       <c r="N13">
-        <v>26.5506525706167</v>
+        <v>102.969044</v>
       </c>
       <c r="O13">
-        <v>0.02655808671566317</v>
+        <v>0.03280978910115619</v>
       </c>
       <c r="P13">
-        <v>0.02655808671566317</v>
+        <v>0.0328097891011562</v>
       </c>
       <c r="Q13">
-        <v>5959.621205540894</v>
+        <v>7813.080841696171</v>
       </c>
       <c r="R13">
-        <v>5959.621205540894</v>
+        <v>70317.72757526554</v>
       </c>
       <c r="S13">
-        <v>0.01735263841340893</v>
+        <v>0.0207337349544972</v>
       </c>
       <c r="T13">
-        <v>0.01735263841340893</v>
+        <v>0.02073373495449721</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.167490218804842</v>
+        <v>0.194568</v>
       </c>
       <c r="H14">
-        <v>0.167490218804842</v>
+        <v>0.583704</v>
       </c>
       <c r="I14">
-        <v>0.0004875450209325077</v>
+        <v>0.0005401428435299865</v>
       </c>
       <c r="J14">
-        <v>0.0004875450209325077</v>
+        <v>0.0005401428435299865</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>11.1896901694583</v>
+        <v>15.30232233333333</v>
       </c>
       <c r="N14">
-        <v>11.1896901694583</v>
+        <v>45.90696699999999</v>
       </c>
       <c r="O14">
-        <v>0.01119282326682845</v>
+        <v>0.01462767689232637</v>
       </c>
       <c r="P14">
-        <v>0.01119282326682845</v>
+        <v>0.01462767689232637</v>
       </c>
       <c r="Q14">
-        <v>1.87416365484096</v>
+        <v>2.977342251751999</v>
       </c>
       <c r="R14">
-        <v>1.87416365484096</v>
+        <v>26.796080265768</v>
       </c>
       <c r="S14">
-        <v>5.457005253919736E-06</v>
+        <v>7.901034990859039E-06</v>
       </c>
       <c r="T14">
-        <v>5.457005253919736E-06</v>
+        <v>7.901034990859041E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.167490218804842</v>
+        <v>0.194568</v>
       </c>
       <c r="H15">
-        <v>0.167490218804842</v>
+        <v>0.583704</v>
       </c>
       <c r="I15">
-        <v>0.0004875450209325077</v>
+        <v>0.0005401428435299865</v>
       </c>
       <c r="J15">
-        <v>0.0004875450209325077</v>
+        <v>0.0005401428435299865</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.158345184663924</v>
+        <v>0.230825</v>
       </c>
       <c r="N15">
-        <v>0.158345184663924</v>
+        <v>0.6924750000000001</v>
       </c>
       <c r="O15">
-        <v>0.0001583895210909504</v>
+        <v>0.0002206484378724847</v>
       </c>
       <c r="P15">
-        <v>0.0001583895210909504</v>
+        <v>0.0002206484378724847</v>
       </c>
       <c r="Q15">
-        <v>0.02652126962605374</v>
+        <v>0.0449111586</v>
       </c>
       <c r="R15">
-        <v>0.02652126962605374</v>
+        <v>0.4042004274000001</v>
       </c>
       <c r="S15">
-        <v>7.722202237577729E-08</v>
+        <v>1.191816746528934E-07</v>
       </c>
       <c r="T15">
-        <v>7.722202237577729E-08</v>
+        <v>1.191816746528934E-07</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.167490218804842</v>
+        <v>0.194568</v>
       </c>
       <c r="H16">
-        <v>0.167490218804842</v>
+        <v>0.583704</v>
       </c>
       <c r="I16">
-        <v>0.0004875450209325077</v>
+        <v>0.0005401428435299865</v>
       </c>
       <c r="J16">
-        <v>0.0004875450209325077</v>
+        <v>0.0005401428435299865</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>229.48819755857</v>
+        <v>248.91953</v>
       </c>
       <c r="N16">
-        <v>229.48819755857</v>
+        <v>746.75859</v>
       </c>
       <c r="O16">
-        <v>0.2295524539282605</v>
+        <v>0.2379452201904173</v>
       </c>
       <c r="P16">
-        <v>0.2295524539282605</v>
+        <v>0.2379452201904174</v>
       </c>
       <c r="Q16">
-        <v>38.43702842221369</v>
+        <v>48.43177511304</v>
       </c>
       <c r="R16">
-        <v>38.43702842221369</v>
+        <v>435.88597601736</v>
       </c>
       <c r="S16">
-        <v>0.0001119171559555623</v>
+        <v>0.0001285244078380208</v>
       </c>
       <c r="T16">
-        <v>0.0001119171559555623</v>
+        <v>0.0001285244078380208</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.167490218804842</v>
+        <v>0.194568</v>
       </c>
       <c r="H17">
-        <v>0.167490218804842</v>
+        <v>0.583704</v>
       </c>
       <c r="I17">
-        <v>0.0004875450209325077</v>
+        <v>0.0005401428435299865</v>
       </c>
       <c r="J17">
-        <v>0.0004875450209325077</v>
+        <v>0.0005401428435299865</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>271.407715297155</v>
+        <v>276.4319353333333</v>
       </c>
       <c r="N17">
-        <v>271.407715297155</v>
+        <v>829.295806</v>
       </c>
       <c r="O17">
-        <v>0.2714837090723318</v>
+        <v>0.2642446646133118</v>
       </c>
       <c r="P17">
-        <v>0.2714837090723318</v>
+        <v>0.2642446646133118</v>
       </c>
       <c r="Q17">
-        <v>45.45813762044275</v>
+        <v>53.784808793936</v>
       </c>
       <c r="R17">
-        <v>45.45813762044275</v>
+        <v>484.063279145424</v>
       </c>
       <c r="S17">
-        <v>0.0001323605306225049</v>
+        <v>0.0001427298645318618</v>
       </c>
       <c r="T17">
-        <v>0.0001323605306225049</v>
+        <v>0.0001427298645318618</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.167490218804842</v>
+        <v>0.194568</v>
       </c>
       <c r="H18">
-        <v>0.167490218804842</v>
+        <v>0.583704</v>
       </c>
       <c r="I18">
-        <v>0.0004875450209325077</v>
+        <v>0.0005401428435299865</v>
       </c>
       <c r="J18">
-        <v>0.0004875450209325077</v>
+        <v>0.0005401428435299865</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>460.925479015718</v>
+        <v>470.9135336666666</v>
       </c>
       <c r="N18">
-        <v>460.925479015718</v>
+        <v>1412.740601</v>
       </c>
       <c r="O18">
-        <v>0.4610545374958251</v>
+        <v>0.4501520007649158</v>
       </c>
       <c r="P18">
-        <v>0.4610545374958251</v>
+        <v>0.4501520007649159</v>
       </c>
       <c r="Q18">
-        <v>77.20050933306922</v>
+        <v>91.62470441845599</v>
       </c>
       <c r="R18">
-        <v>77.20050933306922</v>
+        <v>824.622339766104</v>
       </c>
       <c r="S18">
-        <v>0.0002247848441344297</v>
+        <v>0.0002431463817138743</v>
       </c>
       <c r="T18">
-        <v>0.0002247848441344297</v>
+        <v>0.0002431463817138743</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.167490218804842</v>
+        <v>0.194568</v>
       </c>
       <c r="H19">
-        <v>0.167490218804842</v>
+        <v>0.583704</v>
       </c>
       <c r="I19">
-        <v>0.0004875450209325077</v>
+        <v>0.0005401428435299865</v>
       </c>
       <c r="J19">
-        <v>0.0004875450209325077</v>
+        <v>0.0005401428435299865</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>26.5506525706167</v>
+        <v>34.32301466666667</v>
       </c>
       <c r="N19">
-        <v>26.5506525706167</v>
+        <v>102.969044</v>
       </c>
       <c r="O19">
-        <v>0.02655808671566317</v>
+        <v>0.03280978910115619</v>
       </c>
       <c r="P19">
-        <v>0.02655808671566317</v>
+        <v>0.0328097891011562</v>
       </c>
       <c r="Q19">
-        <v>4.446974608463932</v>
+        <v>6.678160317663999</v>
       </c>
       <c r="R19">
-        <v>4.446974608463932</v>
+        <v>60.103442858976</v>
       </c>
       <c r="S19">
-        <v>1.294826294371535E-05</v>
+        <v>1.772197278071766E-05</v>
       </c>
       <c r="T19">
-        <v>1.294826294371535E-05</v>
+        <v>1.772197278071767E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.398914818814195</v>
+        <v>0.4517016666666667</v>
       </c>
       <c r="H20">
-        <v>0.398914818814195</v>
+        <v>1.355105</v>
       </c>
       <c r="I20">
-        <v>0.001161195770576136</v>
+        <v>0.001253975076377243</v>
       </c>
       <c r="J20">
-        <v>0.001161195770576136</v>
+        <v>0.001253975076377243</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>11.1896901694583</v>
+        <v>15.30232233333333</v>
       </c>
       <c r="N20">
-        <v>11.1896901694583</v>
+        <v>45.90696699999999</v>
       </c>
       <c r="O20">
-        <v>0.01119282326682845</v>
+        <v>0.01462767689232637</v>
       </c>
       <c r="P20">
-        <v>0.01119282326682845</v>
+        <v>0.01462767689232637</v>
       </c>
       <c r="Q20">
-        <v>4.463733226536437</v>
+        <v>6.912084501837221</v>
       </c>
       <c r="R20">
-        <v>4.463733226536437</v>
+        <v>62.20876051653499</v>
       </c>
       <c r="S20">
-        <v>1.299705903824737E-05</v>
+        <v>1.834274224827659E-05</v>
       </c>
       <c r="T20">
-        <v>1.299705903824737E-05</v>
+        <v>1.834274224827659E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.398914818814195</v>
+        <v>0.4517016666666667</v>
       </c>
       <c r="H21">
-        <v>0.398914818814195</v>
+        <v>1.355105</v>
       </c>
       <c r="I21">
-        <v>0.001161195770576136</v>
+        <v>0.001253975076377243</v>
       </c>
       <c r="J21">
-        <v>0.001161195770576136</v>
+        <v>0.001253975076377243</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.158345184663924</v>
+        <v>0.230825</v>
       </c>
       <c r="N21">
-        <v>0.158345184663924</v>
+        <v>0.6924750000000001</v>
       </c>
       <c r="O21">
-        <v>0.0001583895210909504</v>
+        <v>0.0002206484378724847</v>
       </c>
       <c r="P21">
-        <v>0.0001583895210909504</v>
+        <v>0.0002206484378724847</v>
       </c>
       <c r="Q21">
-        <v>0.06316624065030949</v>
+        <v>0.1042640372083333</v>
       </c>
       <c r="R21">
-        <v>0.06316624065030949</v>
+        <v>0.9383763348750001</v>
       </c>
       <c r="S21">
-        <v>1.839212419943914E-07</v>
+        <v>2.766876417336683E-07</v>
       </c>
       <c r="T21">
-        <v>1.839212419943914E-07</v>
+        <v>2.766876417336684E-07</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.398914818814195</v>
+        <v>0.4517016666666667</v>
       </c>
       <c r="H22">
-        <v>0.398914818814195</v>
+        <v>1.355105</v>
       </c>
       <c r="I22">
-        <v>0.001161195770576136</v>
+        <v>0.001253975076377243</v>
       </c>
       <c r="J22">
-        <v>0.001161195770576136</v>
+        <v>0.001253975076377243</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>229.48819755857</v>
+        <v>248.91953</v>
       </c>
       <c r="N22">
-        <v>229.48819755857</v>
+        <v>746.75859</v>
       </c>
       <c r="O22">
-        <v>0.2295524539282605</v>
+        <v>0.2379452201904173</v>
       </c>
       <c r="P22">
-        <v>0.2295524539282605</v>
+        <v>0.2379452201904174</v>
       </c>
       <c r="Q22">
-        <v>91.54624274907313</v>
+        <v>112.4373665668833</v>
       </c>
       <c r="R22">
-        <v>91.54624274907313</v>
+        <v>1011.93629910195</v>
       </c>
       <c r="S22">
-        <v>0.0002665553386268696</v>
+        <v>0.0002983773756618785</v>
       </c>
       <c r="T22">
-        <v>0.0002665553386268696</v>
+        <v>0.0002983773756618786</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.398914818814195</v>
+        <v>0.4517016666666667</v>
       </c>
       <c r="H23">
-        <v>0.398914818814195</v>
+        <v>1.355105</v>
       </c>
       <c r="I23">
-        <v>0.001161195770576136</v>
+        <v>0.001253975076377243</v>
       </c>
       <c r="J23">
-        <v>0.001161195770576136</v>
+        <v>0.001253975076377243</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>271.407715297155</v>
+        <v>276.4319353333333</v>
       </c>
       <c r="N23">
-        <v>271.407715297155</v>
+        <v>829.295806</v>
       </c>
       <c r="O23">
-        <v>0.2714837090723318</v>
+        <v>0.2642446646133118</v>
       </c>
       <c r="P23">
-        <v>0.2714837090723318</v>
+        <v>0.2642446646133118</v>
       </c>
       <c r="Q23">
-        <v>108.2685595725392</v>
+        <v>124.8647659099589</v>
       </c>
       <c r="R23">
-        <v>108.2685595725392</v>
+        <v>1123.78289318963</v>
       </c>
       <c r="S23">
-        <v>0.000315245734755114</v>
+        <v>0.0003313562234907566</v>
       </c>
       <c r="T23">
-        <v>0.000315245734755114</v>
+        <v>0.0003313562234907567</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.398914818814195</v>
+        <v>0.4517016666666667</v>
       </c>
       <c r="H24">
-        <v>0.398914818814195</v>
+        <v>1.355105</v>
       </c>
       <c r="I24">
-        <v>0.001161195770576136</v>
+        <v>0.001253975076377243</v>
       </c>
       <c r="J24">
-        <v>0.001161195770576136</v>
+        <v>0.001253975076377243</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>460.925479015718</v>
+        <v>470.9135336666666</v>
       </c>
       <c r="N24">
-        <v>460.925479015718</v>
+        <v>1412.740601</v>
       </c>
       <c r="O24">
-        <v>0.4610545374958251</v>
+        <v>0.4501520007649158</v>
       </c>
       <c r="P24">
-        <v>0.4610545374958251</v>
+        <v>0.4501520007649159</v>
       </c>
       <c r="Q24">
-        <v>183.8700039484012</v>
+        <v>212.7124280131228</v>
       </c>
       <c r="R24">
-        <v>183.8700039484012</v>
+        <v>1914.411852118105</v>
       </c>
       <c r="S24">
-        <v>0.0005353745789450888</v>
+        <v>0.0005644793895405541</v>
       </c>
       <c r="T24">
-        <v>0.0005353745789450888</v>
+        <v>0.0005644793895405542</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.398914818814195</v>
+        <v>0.4517016666666667</v>
       </c>
       <c r="H25">
-        <v>0.398914818814195</v>
+        <v>1.355105</v>
       </c>
       <c r="I25">
-        <v>0.001161195770576136</v>
+        <v>0.001253975076377243</v>
       </c>
       <c r="J25">
-        <v>0.001161195770576136</v>
+        <v>0.001253975076377243</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>26.5506525706167</v>
+        <v>34.32301466666667</v>
       </c>
       <c r="N25">
-        <v>26.5506525706167</v>
+        <v>102.969044</v>
       </c>
       <c r="O25">
-        <v>0.02655808671566317</v>
+        <v>0.03280978910115619</v>
       </c>
       <c r="P25">
-        <v>0.02655808671566317</v>
+        <v>0.0328097891011562</v>
       </c>
       <c r="Q25">
-        <v>10.5914487596062</v>
+        <v>15.50376292995778</v>
       </c>
       <c r="R25">
-        <v>10.5914487596062</v>
+        <v>139.53386636962</v>
       </c>
       <c r="S25">
-        <v>3.083913796882234E-05</v>
+        <v>4.114265779404358E-05</v>
       </c>
       <c r="T25">
-        <v>3.083913796882234E-05</v>
+        <v>4.114265779404359E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.768454201671312</v>
+        <v>0.7729569999999999</v>
       </c>
       <c r="H26">
-        <v>0.768454201671312</v>
+        <v>2.318871</v>
       </c>
       <c r="I26">
-        <v>0.002236882980468602</v>
+        <v>0.002145816331084288</v>
       </c>
       <c r="J26">
-        <v>0.002236882980468602</v>
+        <v>0.002145816331084288</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>11.1896901694583</v>
+        <v>15.30232233333333</v>
       </c>
       <c r="N26">
-        <v>11.1896901694583</v>
+        <v>45.90696699999999</v>
       </c>
       <c r="O26">
-        <v>0.01119282326682845</v>
+        <v>0.01462767689232637</v>
       </c>
       <c r="P26">
-        <v>0.01119282326682845</v>
+        <v>0.01462767689232637</v>
       </c>
       <c r="Q26">
-        <v>8.598764426120406</v>
+        <v>11.82803716380633</v>
       </c>
       <c r="R26">
-        <v>8.598764426120406</v>
+        <v>106.452334474257</v>
       </c>
       <c r="S26">
-        <v>2.503703586896154E-05</v>
+        <v>3.138830796137819E-05</v>
       </c>
       <c r="T26">
-        <v>2.503703586896154E-05</v>
+        <v>3.138830796137819E-05</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0.768454201671312</v>
+        <v>0.7729569999999999</v>
       </c>
       <c r="H27">
-        <v>0.768454201671312</v>
+        <v>2.318871</v>
       </c>
       <c r="I27">
-        <v>0.002236882980468602</v>
+        <v>0.002145816331084288</v>
       </c>
       <c r="J27">
-        <v>0.002236882980468602</v>
+        <v>0.002145816331084288</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>0.158345184663924</v>
+        <v>0.230825</v>
       </c>
       <c r="N27">
-        <v>0.158345184663924</v>
+        <v>0.6924750000000001</v>
       </c>
       <c r="O27">
-        <v>0.0001583895210909504</v>
+        <v>0.0002206484378724847</v>
       </c>
       <c r="P27">
-        <v>0.0001583895210909504</v>
+        <v>0.0002206484378724847</v>
       </c>
       <c r="Q27">
-        <v>0.1216810224694122</v>
+        <v>0.178417799525</v>
       </c>
       <c r="R27">
-        <v>0.1216810224694122</v>
+        <v>1.605760195725</v>
       </c>
       <c r="S27">
-        <v>3.542988240129197E-07</v>
+        <v>4.734710214150145E-07</v>
       </c>
       <c r="T27">
-        <v>3.542988240129197E-07</v>
+        <v>4.734710214150146E-07</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>0.768454201671312</v>
+        <v>0.7729569999999999</v>
       </c>
       <c r="H28">
-        <v>0.768454201671312</v>
+        <v>2.318871</v>
       </c>
       <c r="I28">
-        <v>0.002236882980468602</v>
+        <v>0.002145816331084288</v>
       </c>
       <c r="J28">
-        <v>0.002236882980468602</v>
+        <v>0.002145816331084288</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>229.48819755857</v>
+        <v>248.91953</v>
       </c>
       <c r="N28">
-        <v>229.48819755857</v>
+        <v>746.75859</v>
       </c>
       <c r="O28">
-        <v>0.2295524539282605</v>
+        <v>0.2379452201904173</v>
       </c>
       <c r="P28">
-        <v>0.2295524539282605</v>
+        <v>0.2379452201904174</v>
       </c>
       <c r="Q28">
-        <v>176.3511696478592</v>
+        <v>192.40409315021</v>
       </c>
       <c r="R28">
-        <v>176.3511696478592</v>
+        <v>1731.63683835189</v>
       </c>
       <c r="S28">
-        <v>0.0005134819773169289</v>
+        <v>0.0005105867393880443</v>
       </c>
       <c r="T28">
-        <v>0.0005134819773169289</v>
+        <v>0.0005105867393880444</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>0.768454201671312</v>
+        <v>0.7729569999999999</v>
       </c>
       <c r="H29">
-        <v>0.768454201671312</v>
+        <v>2.318871</v>
       </c>
       <c r="I29">
-        <v>0.002236882980468602</v>
+        <v>0.002145816331084288</v>
       </c>
       <c r="J29">
-        <v>0.002236882980468602</v>
+        <v>0.002145816331084288</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>271.407715297155</v>
+        <v>276.4319353333333</v>
       </c>
       <c r="N29">
-        <v>271.407715297155</v>
+        <v>829.295806</v>
       </c>
       <c r="O29">
-        <v>0.2714837090723318</v>
+        <v>0.2642446646133118</v>
       </c>
       <c r="P29">
-        <v>0.2714837090723318</v>
+        <v>0.2642446646133118</v>
       </c>
       <c r="Q29">
-        <v>208.56439918611</v>
+        <v>213.6699994394473</v>
       </c>
       <c r="R29">
-        <v>208.56439918611</v>
+        <v>1923.029994955026</v>
       </c>
       <c r="S29">
-        <v>0.0006072772882983885</v>
+        <v>0.0005670205167291349</v>
       </c>
       <c r="T29">
-        <v>0.0006072772882983885</v>
+        <v>0.000567020516729135</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>0.768454201671312</v>
+        <v>0.7729569999999999</v>
       </c>
       <c r="H30">
-        <v>0.768454201671312</v>
+        <v>2.318871</v>
       </c>
       <c r="I30">
-        <v>0.002236882980468602</v>
+        <v>0.002145816331084288</v>
       </c>
       <c r="J30">
-        <v>0.002236882980468602</v>
+        <v>0.002145816331084288</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>460.925479015718</v>
+        <v>470.9135336666666</v>
       </c>
       <c r="N30">
-        <v>460.925479015718</v>
+        <v>1412.740601</v>
       </c>
       <c r="O30">
-        <v>0.4610545374958251</v>
+        <v>0.4501520007649158</v>
       </c>
       <c r="P30">
-        <v>0.4610545374958251</v>
+        <v>0.4501520007649159</v>
       </c>
       <c r="Q30">
-        <v>354.2001210069906</v>
+        <v>363.9959122423856</v>
       </c>
       <c r="R30">
-        <v>354.2001210069906</v>
+        <v>3275.96321018147</v>
       </c>
       <c r="S30">
-        <v>0.001031325047992234</v>
+        <v>0.0009659435147116233</v>
       </c>
       <c r="T30">
-        <v>0.001031325047992234</v>
+        <v>0.0009659435147116235</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>0.768454201671312</v>
+        <v>0.7729569999999999</v>
       </c>
       <c r="H31">
-        <v>0.768454201671312</v>
+        <v>2.318871</v>
       </c>
       <c r="I31">
-        <v>0.002236882980468602</v>
+        <v>0.002145816331084288</v>
       </c>
       <c r="J31">
-        <v>0.002236882980468602</v>
+        <v>0.002145816331084288</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>26.5506525706167</v>
+        <v>34.32301466666667</v>
       </c>
       <c r="N31">
-        <v>26.5506525706167</v>
+        <v>102.969044</v>
       </c>
       <c r="O31">
-        <v>0.02655808671566317</v>
+        <v>0.03280978910115619</v>
       </c>
       <c r="P31">
-        <v>0.02655808671566317</v>
+        <v>0.0328097891011562</v>
       </c>
       <c r="Q31">
-        <v>20.40296052500562</v>
+        <v>26.53021444770266</v>
       </c>
       <c r="R31">
-        <v>20.40296052500562</v>
+        <v>238.771930029324</v>
       </c>
       <c r="S31">
-        <v>5.940733216807621E-05</v>
+        <v>7.040378127269225E-05</v>
       </c>
       <c r="T31">
-        <v>5.940733216807621E-05</v>
+        <v>7.040378127269226E-05</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>20.3060048223797</v>
+        <v>22.05086833333333</v>
       </c>
       <c r="H32">
-        <v>20.3060048223797</v>
+        <v>66.15260499999999</v>
       </c>
       <c r="I32">
-        <v>0.05910847580728402</v>
+        <v>0.06121571236725463</v>
       </c>
       <c r="J32">
-        <v>0.05910847580728402</v>
+        <v>0.06121571236725463</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>11.1896901694583</v>
+        <v>15.30232233333333</v>
       </c>
       <c r="N32">
-        <v>11.1896901694583</v>
+        <v>45.90696699999999</v>
       </c>
       <c r="O32">
-        <v>0.01119282326682845</v>
+        <v>0.01462767689232637</v>
       </c>
       <c r="P32">
-        <v>0.01119282326682845</v>
+        <v>0.01462767689232637</v>
       </c>
       <c r="Q32">
-        <v>227.2179025419549</v>
+        <v>337.4294949665593</v>
       </c>
       <c r="R32">
-        <v>227.2179025419549</v>
+        <v>3036.865454699034</v>
       </c>
       <c r="S32">
-        <v>0.0006615907232825352</v>
+        <v>0.000895443661241788</v>
       </c>
       <c r="T32">
-        <v>0.0006615907232825352</v>
+        <v>0.0008954436612417882</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>20.3060048223797</v>
+        <v>22.05086833333333</v>
       </c>
       <c r="H33">
-        <v>20.3060048223797</v>
+        <v>66.15260499999999</v>
       </c>
       <c r="I33">
-        <v>0.05910847580728402</v>
+        <v>0.06121571236725463</v>
       </c>
       <c r="J33">
-        <v>0.05910847580728402</v>
+        <v>0.06121571236725463</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>0.158345184663924</v>
+        <v>0.230825</v>
       </c>
       <c r="N33">
-        <v>0.158345184663924</v>
+        <v>0.6924750000000001</v>
       </c>
       <c r="O33">
-        <v>0.0001583895210909504</v>
+        <v>0.0002206484378724847</v>
       </c>
       <c r="P33">
-        <v>0.0001583895210909504</v>
+        <v>0.0002206484378724847</v>
       </c>
       <c r="Q33">
-        <v>3.215358083386245</v>
+        <v>5.089891683041667</v>
       </c>
       <c r="R33">
-        <v>3.215358083386245</v>
+        <v>45.809025147375</v>
       </c>
       <c r="S33">
-        <v>9.362163175531746E-06</v>
+        <v>1.350715130708608E-05</v>
       </c>
       <c r="T33">
-        <v>9.362163175531746E-06</v>
+        <v>1.350715130708608E-05</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>20.3060048223797</v>
+        <v>22.05086833333333</v>
       </c>
       <c r="H34">
-        <v>20.3060048223797</v>
+        <v>66.15260499999999</v>
       </c>
       <c r="I34">
-        <v>0.05910847580728402</v>
+        <v>0.06121571236725463</v>
       </c>
       <c r="J34">
-        <v>0.05910847580728402</v>
+        <v>0.06121571236725463</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>229.48819755857</v>
+        <v>248.91953</v>
       </c>
       <c r="N34">
-        <v>229.48819755857</v>
+        <v>746.75859</v>
       </c>
       <c r="O34">
-        <v>0.2295524539282605</v>
+        <v>0.2379452201904173</v>
       </c>
       <c r="P34">
-        <v>0.2295524539282605</v>
+        <v>0.2379452201904174</v>
       </c>
       <c r="Q34">
-        <v>4659.988446303547</v>
+        <v>5488.891781625216</v>
       </c>
       <c r="R34">
-        <v>4659.988446303547</v>
+        <v>49400.02603462695</v>
       </c>
       <c r="S34">
-        <v>0.01356849566952127</v>
+        <v>0.01456598615833966</v>
       </c>
       <c r="T34">
-        <v>0.01356849566952127</v>
+        <v>0.01456598615833966</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>20.3060048223797</v>
+        <v>22.05086833333333</v>
       </c>
       <c r="H35">
-        <v>20.3060048223797</v>
+        <v>66.15260499999999</v>
       </c>
       <c r="I35">
-        <v>0.05910847580728402</v>
+        <v>0.06121571236725463</v>
       </c>
       <c r="J35">
-        <v>0.05910847580728402</v>
+        <v>0.06121571236725463</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>271.407715297155</v>
+        <v>276.4319353333333</v>
       </c>
       <c r="N35">
-        <v>271.407715297155</v>
+        <v>829.295806</v>
       </c>
       <c r="O35">
-        <v>0.2714837090723318</v>
+        <v>0.2642446646133118</v>
       </c>
       <c r="P35">
-        <v>0.2714837090723318</v>
+        <v>0.2642446646133118</v>
       </c>
       <c r="Q35">
-        <v>5511.206375655085</v>
+        <v>6095.564209163847</v>
       </c>
       <c r="R35">
-        <v>5511.206375655085</v>
+        <v>54860.07788247462</v>
       </c>
       <c r="S35">
-        <v>0.01604698824977366</v>
+        <v>0.01617592538355016</v>
       </c>
       <c r="T35">
-        <v>0.01604698824977366</v>
+        <v>0.01617592538355016</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>20.3060048223797</v>
+        <v>22.05086833333333</v>
       </c>
       <c r="H36">
-        <v>20.3060048223797</v>
+        <v>66.15260499999999</v>
       </c>
       <c r="I36">
-        <v>0.05910847580728402</v>
+        <v>0.06121571236725463</v>
       </c>
       <c r="J36">
-        <v>0.05910847580728402</v>
+        <v>0.06121571236725463</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>460.925479015718</v>
+        <v>470.9135336666666</v>
       </c>
       <c r="N36">
-        <v>460.925479015718</v>
+        <v>1412.740601</v>
       </c>
       <c r="O36">
-        <v>0.4610545374958251</v>
+        <v>0.4501520007649158</v>
       </c>
       <c r="P36">
-        <v>0.4610545374958251</v>
+        <v>0.4501520007649159</v>
       </c>
       <c r="Q36">
-        <v>9359.554999650842</v>
+        <v>10384.0523272684</v>
       </c>
       <c r="R36">
-        <v>9359.554999650842</v>
+        <v>93456.4709454156</v>
       </c>
       <c r="S36">
-        <v>0.0272522309754105</v>
+        <v>0.02755637540036927</v>
       </c>
       <c r="T36">
-        <v>0.0272522309754105</v>
+        <v>0.02755637540036928</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>20.3060048223797</v>
+        <v>22.05086833333333</v>
       </c>
       <c r="H37">
-        <v>20.3060048223797</v>
+        <v>66.15260499999999</v>
       </c>
       <c r="I37">
-        <v>0.05910847580728402</v>
+        <v>0.06121571236725463</v>
       </c>
       <c r="J37">
-        <v>0.05910847580728402</v>
+        <v>0.06121571236725463</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>26.5506525706167</v>
+        <v>34.32301466666667</v>
       </c>
       <c r="N37">
-        <v>26.5506525706167</v>
+        <v>102.969044</v>
       </c>
       <c r="O37">
-        <v>0.02655808671566317</v>
+        <v>0.03280978910115619</v>
       </c>
       <c r="P37">
-        <v>0.02655808671566317</v>
+        <v>0.0328097891011562</v>
       </c>
       <c r="Q37">
-        <v>539.1376791362707</v>
+        <v>756.8522772177354</v>
       </c>
       <c r="R37">
-        <v>539.1376791362707</v>
+        <v>6811.670494959619</v>
       </c>
       <c r="S37">
-        <v>0.001569808026120527</v>
+        <v>0.002008474612446663</v>
       </c>
       <c r="T37">
-        <v>0.001569808026120527</v>
+        <v>0.002008474612446664</v>
       </c>
     </row>
   </sheetData>
